--- a/BackTest/2020-01-16 BackTest ETH.xlsx
+++ b/BackTest/2020-01-16 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,11 +715,17 @@
         <v>-3747.595257373427</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>168300</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +754,17 @@
         <v>-2783.422657373427</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>167900</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +793,17 @@
         <v>-2226.467457373427</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>168300</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +832,17 @@
         <v>-2147.405035177442</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>169000</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +871,17 @@
         <v>-2147.405035177442</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>169500</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +910,17 @@
         <v>-1934.153781155128</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>169500</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +949,17 @@
         <v>-1605.447481155128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>169900</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +988,17 @@
         <v>-1485.659025246839</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>170000</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1027,17 @@
         <v>-1617.219825246839</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>170100</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,7 +1066,7 @@
         <v>-1674.54796933855</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>170000</v>
@@ -1020,7 +1074,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1051,7 +1105,7 @@
         <v>-1793.54696933855</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>169800</v>
@@ -1090,7 +1144,7 @@
         <v>-1742.60236933855</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>169600</v>
@@ -1129,7 +1183,7 @@
         <v>-1728.75896933855</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>169800</v>
@@ -1168,7 +1222,7 @@
         <v>-1662.62106933855</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>169900</v>
@@ -1207,7 +1261,7 @@
         <v>-1715.16466933855</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>170000</v>
@@ -1246,7 +1300,7 @@
         <v>-1668.17436933855</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>169600</v>
@@ -1285,7 +1339,7 @@
         <v>-1708.22876933855</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>169700</v>
@@ -1324,7 +1378,7 @@
         <v>-2180.52266933855</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>169600</v>
@@ -1363,7 +1417,7 @@
         <v>-1821.02746933855</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>169300</v>
@@ -1402,7 +1456,7 @@
         <v>-1821.02746933855</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>169700</v>
@@ -1441,7 +1495,7 @@
         <v>-1716.052943661282</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>169700</v>
@@ -1480,7 +1534,7 @@
         <v>-1875.479943661282</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>169900</v>
@@ -1519,7 +1573,7 @@
         <v>-1814.275143661282</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>169700</v>
@@ -1558,9 +1612,11 @@
         <v>-1980.090043661282</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>169900</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1595,9 +1651,11 @@
         <v>-2008.724643661282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>169800</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1632,9 +1690,11 @@
         <v>-2021.850943661282</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>169700</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1669,9 +1729,11 @@
         <v>-2210.020443661283</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>169600</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1706,9 +1768,11 @@
         <v>-1924.322443661283</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>169300</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1743,9 +1807,11 @@
         <v>-1821.174443661283</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>169400</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1780,7 +1846,7 @@
         <v>-1887.001543661283</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>170000</v>
@@ -1819,7 +1885,7 @@
         <v>-1887.001543661283</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>169700</v>
@@ -1858,7 +1924,7 @@
         <v>-1865.050343661283</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>169700</v>
@@ -1897,7 +1963,7 @@
         <v>-1865.050343661283</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>170000</v>
@@ -1936,7 +2002,7 @@
         <v>-2001.591443661283</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>170000</v>
@@ -1975,7 +2041,7 @@
         <v>-1763.160843661283</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>169900</v>
@@ -2014,9 +2080,11 @@
         <v>-1708.668443661283</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>170000</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2051,7 +2119,7 @@
         <v>-1661.002943661283</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>170300</v>
@@ -2090,9 +2158,11 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>170600</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2127,9 +2197,11 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>170900</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2164,11 +2236,9 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2203,11 +2273,9 @@
         <v>-1848.804143661283</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2279,11 +2347,9 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2799,11 +2865,9 @@
         <v>130.9129594201142</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>174700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2838,11 +2902,9 @@
         <v>532.2798155204563</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>174900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2877,11 +2939,9 @@
         <v>1315.865124384093</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>175400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2916,11 +2976,9 @@
         <v>1315.865124384093</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>175800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2955,11 +3013,9 @@
         <v>1664.630924384093</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>175800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2994,7 +3050,7 @@
         <v>1847.414924384093</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>176600</v>
@@ -3033,11 +3089,9 @@
         <v>2425.229980849367</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>176800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3072,11 +3126,9 @@
         <v>1982.050980849367</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>177100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3111,11 +3163,9 @@
         <v>1122.507580849367</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>175500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3187,11 +3237,9 @@
         <v>1525.487980849367</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>175200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3263,11 +3311,9 @@
         <v>1814.329280849367</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>176000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3339,11 +3385,9 @@
         <v>1680.078980849367</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>175600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3415,11 +3459,9 @@
         <v>1680.078980849367</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>175400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3454,9 +3496,11 @@
         <v>1360.424580849367</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>175400</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3528,9 +3572,11 @@
         <v>950.7320922779384</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>174700</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3565,9 +3611,11 @@
         <v>2222.776492277938</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>174700</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3898,9 +3946,11 @@
         <v>2718.939179414421</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>175200</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3972,9 +4022,11 @@
         <v>2757.163359471401</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>175300</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -13296,16 +13348,18 @@
         <v>9024.87342558417</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L349" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
       <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -13331,11 +13385,15 @@
         <v>9107.87912558417</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13368,7 +13426,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13401,7 +13463,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13434,7 +13500,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13467,7 +13537,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13500,7 +13574,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13533,7 +13611,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13562,11 +13644,15 @@
         <v>9160.271548813165</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13595,11 +13681,15 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13628,11 +13718,15 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13661,11 +13755,15 @@
         <v>9071.178248813165</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +13792,15 @@
         <v>9157.524348813165</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +13829,15 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13764,7 +13870,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13797,7 +13907,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13830,7 +13944,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +13981,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13896,7 +14018,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13929,7 +14055,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13962,7 +14092,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +14125,15 @@
         <v>9721.884847062616</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14028,7 +14166,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14061,7 +14203,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14094,7 +14240,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14123,11 +14273,15 @@
         <v>9890.264896449829</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14160,7 +14314,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14193,7 +14351,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14226,7 +14388,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14259,7 +14425,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14292,7 +14462,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14325,7 +14499,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14358,7 +14536,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14391,7 +14573,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14424,7 +14610,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14457,7 +14647,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14490,7 +14684,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14523,7 +14721,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14556,7 +14758,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14589,7 +14795,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14622,7 +14832,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14655,7 +14869,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14688,7 +14906,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14721,7 +14943,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14754,7 +14980,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +15017,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14820,7 +15054,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14853,7 +15091,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14886,7 +15128,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14919,7 +15165,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14952,7 +15202,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14985,7 +15239,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15276,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15051,7 +15313,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15084,7 +15350,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15117,7 +15387,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15150,7 +15424,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15183,7 +15461,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15216,7 +15498,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15249,7 +15535,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15282,7 +15572,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15315,7 +15609,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15348,7 +15646,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15381,7 +15683,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15414,7 +15720,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15447,7 +15757,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15480,7 +15794,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15513,7 +15831,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15546,7 +15868,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +15905,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15612,7 +15942,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15645,7 +15979,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15678,7 +16016,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15711,7 +16053,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15744,7 +16090,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +16127,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15810,7 +16164,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15843,7 +16201,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15876,7 +16238,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15909,7 +16275,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15942,7 +16312,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15975,7 +16349,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16008,7 +16386,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16041,7 +16423,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16074,7 +16460,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16107,7 +16497,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16140,7 +16534,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16173,7 +16571,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16206,7 +16608,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16239,7 +16645,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16272,7 +16682,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16305,7 +16719,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16338,7 +16756,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16371,7 +16793,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16404,7 +16830,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16437,7 +16867,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16470,7 +16904,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16503,7 +16941,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16536,7 +16978,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16569,7 +17015,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16602,7 +17052,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16635,7 +17089,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16668,7 +17126,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16701,7 +17163,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16730,11 +17196,15 @@
         <v>12569.52248066665</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16763,11 +17233,15 @@
         <v>12434.56858066665</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16796,11 +17270,15 @@
         <v>12434.56858066665</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +17307,15 @@
         <v>12434.56858066665</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16862,11 +17344,15 @@
         <v>12125.67124648047</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16895,11 +17381,15 @@
         <v>11908.78494648047</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16932,7 +17422,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16965,7 +17459,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16998,7 +17496,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17031,7 +17533,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17064,7 +17570,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17097,7 +17607,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17130,7 +17644,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17163,7 +17681,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17196,7 +17718,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17229,7 +17755,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17262,7 +17792,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17295,7 +17829,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17328,7 +17866,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17361,7 +17903,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17394,7 +17940,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17427,7 +17977,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17460,7 +18014,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17493,7 +18051,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17526,7 +18088,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17559,7 +18125,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17592,7 +18162,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17625,7 +18199,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17658,7 +18236,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17691,7 +18273,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17724,7 +18310,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17757,7 +18347,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17790,7 +18384,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17823,7 +18421,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17856,7 +18458,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17889,7 +18495,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17922,7 +18532,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17955,7 +18569,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17988,7 +18606,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18021,7 +18643,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18054,7 +18680,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18087,7 +18717,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18120,7 +18754,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18153,7 +18791,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18186,7 +18828,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18219,7 +18865,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18252,7 +18902,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18285,7 +18939,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18318,7 +18976,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18351,7 +19013,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18384,7 +19050,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18417,7 +19087,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18450,7 +19124,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18483,7 +19161,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18512,11 +19194,15 @@
         <v>15149.45951321285</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18549,7 +19235,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18582,7 +19272,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18615,7 +19309,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18644,11 +19342,15 @@
         <v>14770.98490103552</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18681,7 +19383,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18714,7 +19420,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18743,11 +19453,15 @@
         <v>15463.95560103553</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18776,11 +19490,15 @@
         <v>15635.30067867759</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18809,11 +19527,15 @@
         <v>15964.98531271788</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18846,7 +19568,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18875,11 +19601,15 @@
         <v>15480.72818094893</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18908,11 +19638,15 @@
         <v>15322.04898094893</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18941,14 +19675,16 @@
         <v>14788.38138094893</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="n">
-        <v>1</v>
-      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="inlineStr"/>
     </row>
     <row r="521">
@@ -18974,7 +19710,7 @@
         <v>15408.66234623555</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19007,7 +19743,7 @@
         <v>16045.08679227767</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19040,7 +19776,7 @@
         <v>17229.28925880797</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19073,7 +19809,7 @@
         <v>16320.89650556601</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19106,7 +19842,7 @@
         <v>17089.12455656812</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19139,7 +19875,7 @@
         <v>17554.89045656812</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19172,7 +19908,7 @@
         <v>18008.87315908913</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19205,7 +19941,7 @@
         <v>18486.78597403166</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19238,7 +19974,7 @@
         <v>17588.21003319396</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19271,7 +20007,7 @@
         <v>16898.88331025869</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19304,7 +20040,7 @@
         <v>17378.42411757322</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19337,7 +20073,7 @@
         <v>16901.19084890481</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19370,7 +20106,7 @@
         <v>15857.033637409</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19403,7 +20139,7 @@
         <v>16230.7417305512</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19436,7 +20172,7 @@
         <v>15501.7512305512</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19469,7 +20205,7 @@
         <v>14683.9535305512</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19502,7 +20238,7 @@
         <v>13990.2806305512</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19535,7 +20271,7 @@
         <v>13533.3030305512</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19568,7 +20304,7 @@
         <v>13169.2895305512</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19601,7 +20337,7 @@
         <v>12336.2302305512</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19634,7 +20370,7 @@
         <v>10972.50774120186</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19667,7 +20403,7 @@
         <v>10263.78774120186</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19700,7 +20436,7 @@
         <v>9913.241232688106</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19733,7 +20469,7 @@
         <v>10634.05487114964</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19766,7 +20502,7 @@
         <v>10960.29537114964</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19799,7 +20535,7 @@
         <v>11197.21153025052</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19832,7 +20568,7 @@
         <v>11523.29183025052</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19865,7 +20601,7 @@
         <v>12257.45237022868</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19898,7 +20634,7 @@
         <v>12068.62287022868</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19931,7 +20667,7 @@
         <v>12264.27227022868</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19964,7 +20700,7 @@
         <v>12762.22937022868</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19997,7 +20733,7 @@
         <v>12762.22937022868</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20030,7 +20766,7 @@
         <v>12621.98877022868</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20063,7 +20799,7 @@
         <v>12794.15897022868</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20096,7 +20832,7 @@
         <v>12703.52711475107</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20129,7 +20865,7 @@
         <v>12703.52711475107</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20162,7 +20898,7 @@
         <v>12618.04979012904</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20195,7 +20931,7 @@
         <v>12618.04979012904</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20228,7 +20964,7 @@
         <v>12456.35538828722</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20261,7 +20997,7 @@
         <v>12456.35538828722</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20294,7 +21030,7 @@
         <v>11947.43488828722</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20360,7 +21096,7 @@
         <v>11304.74558828722</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22175,7 +22911,7 @@
         <v>12424.12040146494</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22208,7 +22944,7 @@
         <v>12424.12040146494</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22670,7 +23406,7 @@
         <v>12870.90770860513</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22802,7 +23538,7 @@
         <v>13279.87784841018</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22835,7 +23571,7 @@
         <v>13314.65164841018</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22868,7 +23604,7 @@
         <v>13376.53385259024</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22901,7 +23637,7 @@
         <v>13455.08257213808</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22934,7 +23670,7 @@
         <v>13398.61076795802</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22967,7 +23703,7 @@
         <v>13398.61076795802</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23000,7 +23736,7 @@
         <v>13325.9681098935</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23033,7 +23769,7 @@
         <v>13325.9681098935</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23066,7 +23802,7 @@
         <v>13264.1738098935</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23099,7 +23835,7 @@
         <v>13284.2553098935</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23165,7 +23901,7 @@
         <v>13279.5367098935</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23198,7 +23934,7 @@
         <v>13279.5367098935</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23231,7 +23967,7 @@
         <v>13243.8261098935</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23264,7 +24000,7 @@
         <v>13296.72961731685</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23297,7 +24033,7 @@
         <v>13204.84331731685</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23330,7 +24066,7 @@
         <v>13090.42871731685</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23363,7 +24099,7 @@
         <v>13099.29846340849</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23396,7 +24132,7 @@
         <v>13013.84916340849</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23429,7 +24165,7 @@
         <v>13013.84916340849</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23462,7 +24198,7 @@
         <v>13013.84916340849</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23594,7 +24330,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23627,7 +24363,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23660,7 +24396,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23693,7 +24429,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -29435,7 +30171,7 @@
         <v>10751.03384305915</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29534,7 +30270,7 @@
         <v>10760.84194305915</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29567,7 +30303,7 @@
         <v>10810.10804305915</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29864,7 +30600,7 @@
         <v>11274.78696528137</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29897,7 +30633,7 @@
         <v>11471.34906528137</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29930,7 +30666,7 @@
         <v>11471.34906528137</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29963,7 +30699,7 @@
         <v>11500.66956528137</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29996,7 +30732,7 @@
         <v>11578.95906528137</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30029,7 +30765,7 @@
         <v>11592.24716528137</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30062,7 +30798,7 @@
         <v>11592.24716528137</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30095,7 +30831,7 @@
         <v>11621.76546528137</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30128,7 +30864,7 @@
         <v>11729.72356528137</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30161,7 +30897,7 @@
         <v>11729.72356528137</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30194,7 +30930,7 @@
         <v>11795.09326528137</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30227,7 +30963,7 @@
         <v>11851.25986528137</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30260,7 +30996,7 @@
         <v>11865.05356528137</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30293,7 +31029,7 @@
         <v>12028.96262779509</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30326,7 +31062,7 @@
         <v>11963.53742779509</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30359,7 +31095,7 @@
         <v>12008.44242691452</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30392,7 +31128,7 @@
         <v>12001.16292691452</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30425,7 +31161,7 @@
         <v>11922.13602691452</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30458,7 +31194,7 @@
         <v>12056.78646824638</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30491,7 +31227,7 @@
         <v>12056.58876824638</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30524,7 +31260,7 @@
         <v>12083.78886824638</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30557,7 +31293,7 @@
         <v>12082.67446824638</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30590,7 +31326,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30623,7 +31359,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30656,7 +31392,7 @@
         <v>11973.23166824638</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30689,7 +31425,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30722,7 +31458,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30755,7 +31491,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30788,7 +31524,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30821,7 +31557,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30854,7 +31590,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30887,7 +31623,7 @@
         <v>12060.84016912599</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30920,7 +31656,7 @@
         <v>12053.27256912599</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30953,7 +31689,7 @@
         <v>12040.22046912598</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30986,7 +31722,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31019,7 +31755,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31052,7 +31788,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31085,7 +31821,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31118,7 +31854,7 @@
         <v>12063.48016912599</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31151,7 +31887,7 @@
         <v>12106.21566912599</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31184,7 +31920,7 @@
         <v>12094.26986912599</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31283,7 +32019,7 @@
         <v>11992.03266912599</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31316,7 +32052,7 @@
         <v>12118.34196912599</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31382,7 +32118,7 @@
         <v>11873.51391956846</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31415,7 +32151,7 @@
         <v>11801.46701956846</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31448,7 +32184,7 @@
         <v>11829.98431956846</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32537,7 +33273,7 @@
         <v>11783.86731408161</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32570,7 +33306,7 @@
         <v>11788.91936280808</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32636,7 +33372,7 @@
         <v>11774.95786280808</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32669,7 +33405,7 @@
         <v>11786.06016280808</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32702,7 +33438,7 @@
         <v>11786.06016280808</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32735,7 +33471,7 @@
         <v>11786.06016280808</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32768,7 +33504,7 @@
         <v>11841.54796086672</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32801,7 +33537,7 @@
         <v>11777.02806086672</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32834,7 +33570,7 @@
         <v>11777.02806086672</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32867,7 +33603,7 @@
         <v>11777.02806086672</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32900,7 +33636,7 @@
         <v>11773.92156086672</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32933,7 +33669,7 @@
         <v>11785.56696086672</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32966,7 +33702,7 @@
         <v>11777.00886086672</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33164,7 +33900,7 @@
         <v>11648.03326086672</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33197,7 +33933,7 @@
         <v>11717.64486086672</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33230,7 +33966,7 @@
         <v>11703.01456086672</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33461,7 +34197,7 @@
         <v>12033.09563034508</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33494,7 +34230,7 @@
         <v>12033.09563034508</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33527,7 +34263,7 @@
         <v>12033.09563034508</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33560,7 +34296,7 @@
         <v>12056.51413034508</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33593,7 +34329,7 @@
         <v>12169.72063034508</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33626,7 +34362,7 @@
         <v>12454.62693034508</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33659,7 +34395,7 @@
         <v>12454.62693034508</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33692,7 +34428,7 @@
         <v>12451.26123034508</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33725,7 +34461,7 @@
         <v>12451.26123034508</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33758,7 +34494,7 @@
         <v>12460.29233034508</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33791,7 +34527,7 @@
         <v>12487.9087810649</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33824,7 +34560,7 @@
         <v>12276.7063810649</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33857,7 +34593,7 @@
         <v>12276.7063810649</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33890,7 +34626,7 @@
         <v>12270.9821810649</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33923,7 +34659,7 @@
         <v>12554.4791810649</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33956,7 +34692,7 @@
         <v>12554.4791810649</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33989,7 +34725,7 @@
         <v>12554.4791810649</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34022,7 +34758,7 @@
         <v>12491.5770810649</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34055,7 +34791,7 @@
         <v>12491.5770810649</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34088,7 +34824,7 @@
         <v>12503.5770810649</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34121,7 +34857,7 @@
         <v>12503.5770810649</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34154,7 +34890,7 @@
         <v>12503.5770810649</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34187,7 +34923,7 @@
         <v>12503.5770810649</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34220,7 +34956,7 @@
         <v>12546.58869168437</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34253,7 +34989,7 @@
         <v>12546.58869168437</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34286,7 +35022,7 @@
         <v>12663.06409168437</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34319,7 +35055,7 @@
         <v>12651.04027189443</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34352,7 +35088,7 @@
         <v>12651.04027189443</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34385,7 +35121,7 @@
         <v>12631.43487189443</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34418,7 +35154,7 @@
         <v>12632.32773474683</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34451,7 +35187,7 @@
         <v>12595.65426398951</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34484,7 +35220,7 @@
         <v>12691.39436398951</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34517,7 +35253,7 @@
         <v>12691.39436398951</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34550,7 +35286,7 @@
         <v>12685.72606398951</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34583,7 +35319,7 @@
         <v>12685.72606398951</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34616,7 +35352,7 @@
         <v>12677.33726398951</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34649,7 +35385,7 @@
         <v>12698.7359622196</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34682,7 +35418,7 @@
         <v>12698.7359622196</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34715,7 +35451,7 @@
         <v>12698.7359622196</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34781,7 +35517,7 @@
         <v>12703.20806133464</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34847,7 +35583,7 @@
         <v>12694.33136133464</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34880,7 +35616,7 @@
         <v>12715.3373622196</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34913,7 +35649,7 @@
         <v>12734.2306622196</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34946,7 +35682,7 @@
         <v>12725.0118622196</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34979,7 +35715,7 @@
         <v>12916.9411622196</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35012,7 +35748,7 @@
         <v>12906.3669622196</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35045,7 +35781,7 @@
         <v>13034.64690369781</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35078,7 +35814,7 @@
         <v>12949.62790369781</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35111,7 +35847,7 @@
         <v>12941.76680369781</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35144,7 +35880,7 @@
         <v>12888.52080369781</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35177,7 +35913,7 @@
         <v>12955.1271810282</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35210,7 +35946,7 @@
         <v>12955.1271810282</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35243,7 +35979,7 @@
         <v>13011.50320369781</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35276,7 +36012,7 @@
         <v>13011.50320369781</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35309,7 +36045,7 @@
         <v>12962.47510369781</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35342,7 +36078,7 @@
         <v>12962.47510369781</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35375,7 +36111,7 @@
         <v>13052.44870369781</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35408,7 +36144,7 @@
         <v>13052.44870369781</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35441,7 +36177,7 @@
         <v>13394.16190369781</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35474,7 +36210,7 @@
         <v>13427.09547420852</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35507,7 +36243,7 @@
         <v>13447.5701929791</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35540,7 +36276,7 @@
         <v>13447.5701929791</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35573,7 +36309,7 @@
         <v>13435.0553929791</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35606,7 +36342,7 @@
         <v>13435.0553929791</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35639,7 +36375,7 @@
         <v>13399.9656929791</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35672,7 +36408,7 @@
         <v>13399.9656929791</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35705,7 +36441,7 @@
         <v>13399.9656929791</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35738,7 +36474,7 @@
         <v>13407.8163929791</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35771,7 +36507,7 @@
         <v>13584.6908929791</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35804,7 +36540,7 @@
         <v>13870.67314936967</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35837,7 +36573,7 @@
         <v>13870.67314936967</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35870,7 +36606,7 @@
         <v>13900.42724936967</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35903,7 +36639,7 @@
         <v>13900.42724936967</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35936,7 +36672,7 @@
         <v>13992.81714936967</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35969,7 +36705,7 @@
         <v>13992.81714936967</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36002,7 +36738,7 @@
         <v>13992.81714936967</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36035,7 +36771,7 @@
         <v>14201.25506292438</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36068,7 +36804,7 @@
         <v>14201.25506292438</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36101,7 +36837,7 @@
         <v>14201.25506292438</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36134,7 +36870,7 @@
         <v>14276.76770404333</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36167,7 +36903,7 @@
         <v>14133.79567034768</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36200,7 +36936,7 @@
         <v>14152.49673665203</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36233,7 +36969,7 @@
         <v>14176.85943665203</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36266,7 +37002,7 @@
         <v>14121.18693665203</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36299,7 +37035,7 @@
         <v>14151.06543665203</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36332,7 +37068,7 @@
         <v>14115.22643665203</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36365,7 +37101,7 @@
         <v>14115.22643665203</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36398,7 +37134,7 @@
         <v>14115.22643665203</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36431,7 +37167,7 @@
         <v>14115.22643665203</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36464,7 +37200,7 @@
         <v>13926.72144752159</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36497,7 +37233,7 @@
         <v>14037.11144752159</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36530,7 +37266,7 @@
         <v>14205.13674773875</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36563,7 +37299,7 @@
         <v>14445.63614773875</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36596,7 +37332,7 @@
         <v>14329.22004773875</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36629,7 +37365,7 @@
         <v>14148.41494773875</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36662,7 +37398,7 @@
         <v>14383.18714773875</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36695,7 +37431,7 @@
         <v>14445.99534773875</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36728,7 +37464,7 @@
         <v>14721.89544773875</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36761,7 +37497,7 @@
         <v>14675.88944773875</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36794,7 +37530,7 @@
         <v>14913.13184773875</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36827,7 +37563,7 @@
         <v>15165.54358517133</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36860,7 +37596,7 @@
         <v>15138.96218517133</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36893,7 +37629,7 @@
         <v>15182.50848517133</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36926,7 +37662,7 @@
         <v>14883.68438517133</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36959,7 +37695,7 @@
         <v>14899.74009035771</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36992,7 +37728,7 @@
         <v>14677.62139035771</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37025,7 +37761,7 @@
         <v>14800.39981957347</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37058,7 +37794,7 @@
         <v>14623.42087152153</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37091,7 +37827,7 @@
         <v>14662.07727152153</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37124,7 +37860,7 @@
         <v>14716.91487152153</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37586,7 +38322,7 @@
         <v>14223.99898997973</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37652,7 +38388,7 @@
         <v>14208.37148997973</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38345,7 +39081,7 @@
         <v>14842.49186767974</v>
       </c>
       <c r="H1108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38378,7 +39114,7 @@
         <v>14891.13806767974</v>
       </c>
       <c r="H1109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38411,7 +39147,7 @@
         <v>14949.20376767974</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38444,7 +39180,7 @@
         <v>14998.04226767974</v>
       </c>
       <c r="H1111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38510,7 +39246,7 @@
         <v>15016.33126767974</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38543,7 +39279,7 @@
         <v>14855.81928102742</v>
       </c>
       <c r="H1114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38576,7 +39312,7 @@
         <v>15030.98068102743</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38609,7 +39345,7 @@
         <v>14797.70688102742</v>
       </c>
       <c r="H1116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38642,7 +39378,7 @@
         <v>14814.51768102742</v>
       </c>
       <c r="H1117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38675,7 +39411,7 @@
         <v>14861.03962311858</v>
       </c>
       <c r="H1118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38708,7 +39444,7 @@
         <v>14724.78592311858</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38741,7 +39477,7 @@
         <v>14844.16112311858</v>
       </c>
       <c r="H1120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -38774,7 +39510,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -38807,7 +39543,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -38840,7 +39576,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -38873,7 +39609,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -38906,7 +39642,7 @@
         <v>14782.2461365234</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -38939,7 +39675,7 @@
         <v>14433.4899365234</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39005,7 +39741,7 @@
         <v>14384.66112307711</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39038,7 +39774,7 @@
         <v>14353.43412307711</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39071,7 +39807,7 @@
         <v>14351.38872307711</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39104,7 +39840,7 @@
         <v>14305.87035597754</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39203,7 +39939,7 @@
         <v>14419.53545597754</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39236,7 +39972,7 @@
         <v>14354.57395597754</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39269,7 +40005,7 @@
         <v>14355.06055597754</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39302,7 +40038,7 @@
         <v>14355.02205597754</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39335,7 +40071,7 @@
         <v>14355.02205597754</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39368,7 +40104,7 @@
         <v>14251.06445597754</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39401,7 +40137,7 @@
         <v>14317.58165597754</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39434,7 +40170,7 @@
         <v>14331.59165597755</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39467,7 +40203,7 @@
         <v>14330.56072814249</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39500,7 +40236,7 @@
         <v>14330.56072814249</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39533,7 +40269,7 @@
         <v>14330.03572814249</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39566,7 +40302,7 @@
         <v>14329.29092814249</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39599,7 +40335,7 @@
         <v>14347.43842814249</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40061,7 +40797,7 @@
         <v>14169.41025435123</v>
       </c>
       <c r="H1160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40094,7 +40830,7 @@
         <v>14139.74765435123</v>
       </c>
       <c r="H1161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40127,7 +40863,7 @@
         <v>14074.68585435123</v>
       </c>
       <c r="H1162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40160,7 +40896,7 @@
         <v>13975.63675435123</v>
       </c>
       <c r="H1163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40193,7 +40929,7 @@
         <v>14074.63885435123</v>
       </c>
       <c r="H1164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40391,7 +41127,7 @@
         <v>14130.33325435123</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -40424,7 +41160,7 @@
         <v>14130.97655435123</v>
       </c>
       <c r="H1171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -40457,7 +41193,7 @@
         <v>14130.97655435123</v>
       </c>
       <c r="H1172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40490,7 +41226,7 @@
         <v>14125.43075435123</v>
       </c>
       <c r="H1173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -40523,7 +41259,7 @@
         <v>14125.43075435123</v>
       </c>
       <c r="H1174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40754,7 +41490,7 @@
         <v>13925.87525435123</v>
       </c>
       <c r="H1181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -40787,7 +41523,7 @@
         <v>13852.36445435123</v>
       </c>
       <c r="H1182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -40820,7 +41556,7 @@
         <v>13852.36445435123</v>
       </c>
       <c r="H1183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -40853,7 +41589,7 @@
         <v>13812.14145435123</v>
       </c>
       <c r="H1184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41018,7 +41754,7 @@
         <v>14031.49355435123</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -41051,7 +41787,7 @@
         <v>14031.49355435123</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41084,7 +41820,7 @@
         <v>14128.33305435123</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -41117,7 +41853,7 @@
         <v>14126.37685435123</v>
       </c>
       <c r="H1192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -41150,7 +41886,7 @@
         <v>14129.72915435123</v>
       </c>
       <c r="H1193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -41183,7 +41919,7 @@
         <v>14119.09105435123</v>
       </c>
       <c r="H1194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -41216,7 +41952,7 @@
         <v>14106.80275435123</v>
       </c>
       <c r="H1195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -41249,7 +41985,7 @@
         <v>14138.56595435123</v>
       </c>
       <c r="H1196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -41282,7 +42018,7 @@
         <v>14165.93995435123</v>
       </c>
       <c r="H1197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -41315,7 +42051,7 @@
         <v>14160.77745435123</v>
       </c>
       <c r="H1198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -41348,7 +42084,7 @@
         <v>14162.18565435123</v>
       </c>
       <c r="H1199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -41381,7 +42117,7 @@
         <v>14162.18565435123</v>
       </c>
       <c r="H1200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41414,7 +42150,7 @@
         <v>14143.32535435123</v>
       </c>
       <c r="H1201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -41447,7 +42183,7 @@
         <v>14159.19205435123</v>
       </c>
       <c r="H1202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -41480,7 +42216,7 @@
         <v>14159.19205435123</v>
       </c>
       <c r="H1203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -41513,7 +42249,7 @@
         <v>14159.19205435123</v>
       </c>
       <c r="H1204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41546,7 +42282,7 @@
         <v>14174.02985435123</v>
       </c>
       <c r="H1205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -41579,7 +42315,7 @@
         <v>14109.21055435123</v>
       </c>
       <c r="H1206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -41612,7 +42348,7 @@
         <v>14128.11253287255</v>
       </c>
       <c r="H1207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -41645,7 +42381,7 @@
         <v>14098.46793287255</v>
       </c>
       <c r="H1208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -41678,7 +42414,7 @@
         <v>14098.46793287255</v>
       </c>
       <c r="H1209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -41711,7 +42447,7 @@
         <v>14126.15053287255</v>
       </c>
       <c r="H1210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -41744,7 +42480,7 @@
         <v>14125.16673287255</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -41777,7 +42513,7 @@
         <v>14216.09803287255</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -41810,7 +42546,7 @@
         <v>13930.58385599924</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -41843,7 +42579,7 @@
         <v>14241.52885599924</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -41876,7 +42612,7 @@
         <v>14144.29641274141</v>
       </c>
       <c r="H1215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -41909,7 +42645,7 @@
         <v>14144.29641274141</v>
       </c>
       <c r="H1216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -41942,7 +42678,7 @@
         <v>14144.29641274141</v>
       </c>
       <c r="H1217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -41975,7 +42711,7 @@
         <v>14124.17741274141</v>
       </c>
       <c r="H1218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -42008,7 +42744,7 @@
         <v>14121.97833166033</v>
       </c>
       <c r="H1219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -42041,7 +42777,7 @@
         <v>14121.97833166033</v>
       </c>
       <c r="H1220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42074,7 +42810,7 @@
         <v>14179.64583641195</v>
       </c>
       <c r="H1221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42107,7 +42843,7 @@
         <v>14127.94507226509</v>
       </c>
       <c r="H1222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42140,7 +42876,7 @@
         <v>14103.82247226508</v>
       </c>
       <c r="H1223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42173,7 +42909,7 @@
         <v>14112.74987226509</v>
       </c>
       <c r="H1224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42206,7 +42942,7 @@
         <v>14051.50977226508</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42239,7 +42975,7 @@
         <v>14041.07267226509</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -42272,7 +43008,7 @@
         <v>14015.19147226509</v>
       </c>
       <c r="H1227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -42305,7 +43041,7 @@
         <v>14031.98218018695</v>
       </c>
       <c r="H1228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -42338,7 +43074,7 @@
         <v>14062.02458018695</v>
       </c>
       <c r="H1229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -42371,7 +43107,7 @@
         <v>14034.12998018695</v>
       </c>
       <c r="H1230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -42404,7 +43140,7 @@
         <v>14098.49248018695</v>
       </c>
       <c r="H1231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -42437,7 +43173,7 @@
         <v>14023.32718018695</v>
       </c>
       <c r="H1232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -42470,7 +43206,7 @@
         <v>14034.76533933958</v>
       </c>
       <c r="H1233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -42503,7 +43239,7 @@
         <v>13996.32433933958</v>
       </c>
       <c r="H1234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42536,7 +43272,7 @@
         <v>14009.70923933958</v>
       </c>
       <c r="H1235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -42569,7 +43305,7 @@
         <v>14008.93943933958</v>
       </c>
       <c r="H1236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -42602,7 +43338,7 @@
         <v>14008.93943933958</v>
       </c>
       <c r="H1237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -42635,7 +43371,7 @@
         <v>14008.93943933958</v>
       </c>
       <c r="H1238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -42668,7 +43404,7 @@
         <v>13991.45863933958</v>
       </c>
       <c r="H1239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -42701,7 +43437,7 @@
         <v>13991.45863933958</v>
       </c>
       <c r="H1240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -42734,7 +43470,7 @@
         <v>13991.45863933958</v>
       </c>
       <c r="H1241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
@@ -42866,7 +43602,7 @@
         <v>14079.32583933958</v>
       </c>
       <c r="H1245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -42899,7 +43635,7 @@
         <v>14597.11623933958</v>
       </c>
       <c r="H1246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -42932,7 +43668,7 @@
         <v>14597.11623933958</v>
       </c>
       <c r="H1247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -42965,7 +43701,7 @@
         <v>14597.11623933958</v>
       </c>
       <c r="H1248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -42998,7 +43734,7 @@
         <v>14621.54783933958</v>
       </c>
       <c r="H1249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -43031,7 +43767,7 @@
         <v>14766.79363933958</v>
       </c>
       <c r="H1250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -43064,7 +43800,7 @@
         <v>14693.26583933958</v>
       </c>
       <c r="H1251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -43097,7 +43833,7 @@
         <v>14724.70503933959</v>
       </c>
       <c r="H1252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -43130,7 +43866,7 @@
         <v>14684.65153933959</v>
       </c>
       <c r="H1253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -43163,7 +43899,7 @@
         <v>14730.50993977155</v>
       </c>
       <c r="H1254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -43196,7 +43932,7 @@
         <v>14795.69750843376</v>
       </c>
       <c r="H1255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -43229,7 +43965,7 @@
         <v>14793.64590843376</v>
       </c>
       <c r="H1256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -43262,7 +43998,7 @@
         <v>14769.55960843376</v>
       </c>
       <c r="H1257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -43295,7 +44031,7 @@
         <v>14769.55960843376</v>
       </c>
       <c r="H1258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -43328,7 +44064,7 @@
         <v>14756.43850843376</v>
       </c>
       <c r="H1259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -43361,7 +44097,7 @@
         <v>14755.27970843376</v>
       </c>
       <c r="H1260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -43394,7 +44130,7 @@
         <v>14705.70890843376</v>
       </c>
       <c r="H1261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -43427,7 +44163,7 @@
         <v>14706.57900843376</v>
       </c>
       <c r="H1262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -43460,7 +44196,7 @@
         <v>14730.48440843376</v>
       </c>
       <c r="H1263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43493,7 +44229,7 @@
         <v>14755.33217344456</v>
       </c>
       <c r="H1264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -43526,7 +44262,7 @@
         <v>14713.39187344456</v>
       </c>
       <c r="H1265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -43559,7 +44295,7 @@
         <v>14722.97447344456</v>
       </c>
       <c r="H1266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -43592,7 +44328,7 @@
         <v>14705.78257344456</v>
       </c>
       <c r="H1267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43625,7 +44361,7 @@
         <v>14784.42591472896</v>
       </c>
       <c r="H1268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -43658,7 +44394,7 @@
         <v>14702.22461472896</v>
       </c>
       <c r="H1269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -43691,7 +44427,7 @@
         <v>14761.53161472896</v>
       </c>
       <c r="H1270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -43724,7 +44460,7 @@
         <v>14829.02801472896</v>
       </c>
       <c r="H1271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -43757,7 +44493,7 @@
         <v>14846.99971472896</v>
       </c>
       <c r="H1272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -43790,7 +44526,7 @@
         <v>14846.99971472896</v>
       </c>
       <c r="H1273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -43823,7 +44559,7 @@
         <v>14816.57371203354</v>
       </c>
       <c r="H1274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43856,7 +44592,7 @@
         <v>14684.56911203354</v>
       </c>
       <c r="H1275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43889,7 +44625,7 @@
         <v>14586.44861203354</v>
       </c>
       <c r="H1276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -43922,7 +44658,7 @@
         <v>14586.44861203354</v>
       </c>
       <c r="H1277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -43955,7 +44691,7 @@
         <v>14585.98161203354</v>
       </c>
       <c r="H1278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -43988,7 +44724,7 @@
         <v>14543.61631203354</v>
       </c>
       <c r="H1279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -44021,7 +44757,7 @@
         <v>14545.20071203354</v>
       </c>
       <c r="H1280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -44054,7 +44790,7 @@
         <v>14542.88761203354</v>
       </c>
       <c r="H1281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -44087,7 +44823,7 @@
         <v>14569.44141203354</v>
       </c>
       <c r="H1282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -44120,7 +44856,7 @@
         <v>14574.52161203354</v>
       </c>
       <c r="H1283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -44153,7 +44889,7 @@
         <v>14572.98561203354</v>
       </c>
       <c r="H1284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -44186,7 +44922,7 @@
         <v>14611.85711203354</v>
       </c>
       <c r="H1285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -44219,7 +44955,7 @@
         <v>14656.56771203354</v>
       </c>
       <c r="H1286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -44252,7 +44988,7 @@
         <v>14680.28261203354</v>
       </c>
       <c r="H1287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -44285,7 +45021,7 @@
         <v>14714.20791203354</v>
       </c>
       <c r="H1288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -44318,7 +45054,7 @@
         <v>14846.22643501234</v>
       </c>
       <c r="H1289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -44351,7 +45087,7 @@
         <v>14772.39483501234</v>
       </c>
       <c r="H1290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -44384,7 +45120,7 @@
         <v>14871.82172152497</v>
       </c>
       <c r="H1291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -44417,7 +45153,7 @@
         <v>14858.34550001959</v>
       </c>
       <c r="H1292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44450,7 +45186,7 @@
         <v>14785.41480001959</v>
       </c>
       <c r="H1293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -44483,7 +45219,7 @@
         <v>14881.53980001959</v>
       </c>
       <c r="H1294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -44516,7 +45252,7 @@
         <v>14871.47640001959</v>
       </c>
       <c r="H1295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -44549,7 +45285,7 @@
         <v>15036.57790001959</v>
       </c>
       <c r="H1296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44582,7 +45318,7 @@
         <v>14909.62110001959</v>
       </c>
       <c r="H1297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44615,7 +45351,7 @@
         <v>15039.3270000196</v>
       </c>
       <c r="H1298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44648,7 +45384,7 @@
         <v>15122.91250001959</v>
       </c>
       <c r="H1299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -44681,7 +45417,7 @@
         <v>14930.49505597453</v>
       </c>
       <c r="H1300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -44714,7 +45450,7 @@
         <v>14870.18575597453</v>
       </c>
       <c r="H1301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44747,7 +45483,7 @@
         <v>14870.18575597453</v>
       </c>
       <c r="H1302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44780,7 +45516,7 @@
         <v>14895.41045597453</v>
       </c>
       <c r="H1303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -44813,7 +45549,7 @@
         <v>14861.32665597453</v>
       </c>
       <c r="H1304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44846,7 +45582,7 @@
         <v>14853.05955597453</v>
       </c>
       <c r="H1305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44879,7 +45615,7 @@
         <v>14503.12485597453</v>
       </c>
       <c r="H1306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44912,7 +45648,7 @@
         <v>14541.30185597453</v>
       </c>
       <c r="H1307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44945,7 +45681,7 @@
         <v>14486.24695597453</v>
       </c>
       <c r="H1308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44978,7 +45714,7 @@
         <v>14261.50885597453</v>
       </c>
       <c r="H1309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -45011,7 +45747,7 @@
         <v>13975.92495597453</v>
       </c>
       <c r="H1310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -45044,7 +45780,7 @@
         <v>13928.71805597453</v>
       </c>
       <c r="H1311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -45077,7 +45813,7 @@
         <v>14181.90415597453</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -45110,7 +45846,7 @@
         <v>14223.96325597453</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -45143,7 +45879,7 @@
         <v>14312.23505597453</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -45176,7 +45912,7 @@
         <v>14227.42717754316</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -45209,7 +45945,7 @@
         <v>14148.96587754316</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -45242,7 +45978,7 @@
         <v>14148.96587754316</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -45275,7 +46011,7 @@
         <v>14179.96307754316</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -45308,7 +46044,7 @@
         <v>14163.73547754316</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -45341,7 +46077,7 @@
         <v>14166.42257754316</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -45374,7 +46110,7 @@
         <v>14183.27927754316</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -45616,6 +46352,6 @@
       <c r="M1328" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ETH.xlsx
+++ b/BackTest/2020-01-16 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,11 +583,17 @@
         <v>-1636.502166357573</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>171300</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +626,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +659,17 @@
         <v>-2539.827257373427</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>169300</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +698,17 @@
         <v>-2998.378757373427</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>168800</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -723,7 +745,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -2236,9 +2258,11 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>170900</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2273,9 +2297,11 @@
         <v>-1848.804143661283</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>170900</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2310,9 +2336,11 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>170800</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2347,9 +2375,11 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>170900</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2384,9 +2414,11 @@
         <v>-1714.410643661282</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>170900</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2421,9 +2453,11 @@
         <v>-1672.100643661282</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>171100</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2458,9 +2492,11 @@
         <v>-1581.694275049847</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>171200</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2495,9 +2531,11 @@
         <v>-1616.989775049847</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>171400</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2532,9 +2570,11 @@
         <v>-1583.968875049847</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>171100</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2569,9 +2609,11 @@
         <v>-1495.488675049847</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>171300</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2606,9 +2648,11 @@
         <v>-1569.122975049847</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>171400</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2643,9 +2687,11 @@
         <v>-1569.122975049847</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>171300</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2680,9 +2726,11 @@
         <v>-1402.003575049847</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>171300</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2717,9 +2765,11 @@
         <v>-885.9175472076197</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>171900</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -3050,11 +3100,9 @@
         <v>1847.414924384093</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>176600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3496,11 +3544,9 @@
         <v>1360.424580849367</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>175400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3572,11 +3618,9 @@
         <v>950.7320922779384</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>174700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3611,11 +3655,9 @@
         <v>2222.776492277938</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>174700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3946,11 +3988,9 @@
         <v>2718.939179414421</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>175200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4022,11 +4062,9 @@
         <v>2757.163359471401</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>175300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4468,18 +4506,16 @@
         <v>5716.398690229056</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4505,15 +4541,11 @@
         <v>4888.679790229056</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4542,15 +4574,11 @@
         <v>5291.691890229056</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4579,15 +4607,11 @@
         <v>6281.020690229057</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4616,15 +4640,11 @@
         <v>6642.741690229057</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4653,15 +4673,11 @@
         <v>5918.207290229057</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4690,15 +4706,11 @@
         <v>5695.22902617786</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4727,15 +4739,11 @@
         <v>4600.349604316874</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4768,11 +4776,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4805,11 +4809,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4842,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4879,11 +4875,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4916,11 +4908,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +4941,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4990,11 +4974,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5027,11 +5007,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5064,11 +5040,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5101,11 +5073,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5138,11 +5106,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5139,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5212,11 +5172,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5249,11 +5205,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5286,11 +5238,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +5271,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5360,11 +5304,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5397,11 +5337,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5370,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5471,11 +5403,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5508,11 +5436,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5545,11 +5469,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5578,15 +5498,11 @@
         <v>7470.187456666538</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5615,15 +5531,11 @@
         <v>8981.35144209568</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5652,15 +5564,11 @@
         <v>7857.77774209568</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5689,15 +5597,11 @@
         <v>8344.99064209568</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5726,15 +5630,11 @@
         <v>7798.93444209568</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5763,15 +5663,11 @@
         <v>8476.775942095679</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5800,15 +5696,11 @@
         <v>8603.406442095678</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5837,15 +5729,11 @@
         <v>7996.812590130613</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5874,15 +5762,11 @@
         <v>8223.687027254724</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5911,15 +5795,11 @@
         <v>8046.009339061424</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5948,15 +5828,11 @@
         <v>7758.601239061424</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5985,15 +5861,11 @@
         <v>7895.807510047028</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6022,15 +5894,11 @@
         <v>8028.131510047027</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6063,11 +5931,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6100,11 +5964,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6137,11 +5997,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6170,15 +6026,11 @@
         <v>7831.426510433129</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +6063,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6096,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6285,11 +6129,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6322,11 +6162,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +6195,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6396,11 +6228,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6433,11 +6261,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6470,11 +6294,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6507,11 +6327,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6544,11 +6360,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +6393,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6618,11 +6426,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6459,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6692,11 +6492,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6729,11 +6525,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6766,11 +6558,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6803,11 +6591,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6840,11 +6624,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6877,11 +6657,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6914,11 +6690,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6723,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +6756,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7025,11 +6789,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7062,11 +6822,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7095,15 +6851,11 @@
         <v>7084.520879827565</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7136,11 +6888,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7173,11 +6921,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7210,11 +6954,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7247,11 +6987,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7284,11 +7020,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7321,11 +7053,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7358,11 +7086,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7395,11 +7119,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7432,11 +7152,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7469,11 +7185,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7506,11 +7218,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7543,11 +7251,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7580,11 +7284,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7617,11 +7317,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7654,11 +7350,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7691,11 +7383,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7728,11 +7416,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7765,11 +7449,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +7482,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7839,11 +7515,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7548,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7913,11 +7581,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7950,11 +7614,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +7647,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8024,11 +7680,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8061,11 +7713,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8098,11 +7746,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8135,11 +7779,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8172,11 +7812,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8209,11 +7845,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8246,11 +7878,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +7911,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8320,11 +7944,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8357,11 +7977,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8394,11 +8010,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8431,11 +8043,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8468,11 +8076,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8505,11 +8109,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8542,11 +8142,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8579,11 +8175,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8616,11 +8208,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +8241,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8690,11 +8274,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8727,11 +8307,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8764,11 +8340,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8801,11 +8373,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8838,11 +8406,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8875,11 +8439,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8912,11 +8472,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8949,11 +8505,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8986,11 +8538,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9023,11 +8571,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9060,11 +8604,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +8637,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9134,11 +8670,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9171,11 +8703,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9208,11 +8736,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9245,11 +8769,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9282,11 +8802,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9319,11 +8835,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +8868,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9393,11 +8901,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +8934,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9467,11 +8967,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9504,11 +9000,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9541,11 +9033,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9578,11 +9066,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9615,11 +9099,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9652,11 +9132,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9689,11 +9165,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9726,11 +9198,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9763,11 +9231,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9800,11 +9264,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9837,11 +9297,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9874,11 +9330,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9911,11 +9363,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9948,11 +9396,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9985,11 +9429,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10022,11 +9462,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10059,11 +9495,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10096,11 +9528,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10133,11 +9561,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10170,11 +9594,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10207,11 +9627,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10244,11 +9660,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10281,11 +9693,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +9726,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +9759,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10392,11 +9792,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10429,11 +9825,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10466,11 +9858,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10503,11 +9891,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10540,11 +9924,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10577,11 +9957,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +9990,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10651,11 +10023,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10688,11 +10056,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10725,11 +10089,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10762,11 +10122,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10799,11 +10155,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10836,11 +10188,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10873,11 +10221,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10910,11 +10254,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10947,11 +10287,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10984,11 +10320,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11021,11 +10353,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11058,11 +10386,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11095,11 +10419,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11132,11 +10452,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11169,11 +10485,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11206,11 +10518,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11243,11 +10551,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11280,11 +10584,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11317,11 +10617,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11354,11 +10650,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11391,11 +10683,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11428,11 +10716,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11465,11 +10749,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11502,11 +10782,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +10815,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11576,11 +10848,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11613,11 +10881,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11650,11 +10914,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11687,11 +10947,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11724,11 +10980,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +11013,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11798,11 +11046,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11835,11 +11079,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11872,11 +11112,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11909,11 +11145,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11946,11 +11178,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11983,11 +11211,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12020,11 +11244,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12057,11 +11277,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12094,11 +11310,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12131,11 +11343,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12168,11 +11376,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12205,11 +11409,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12242,11 +11442,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12279,11 +11475,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +11508,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12353,11 +11541,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12390,11 +11574,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12427,11 +11607,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12464,11 +11640,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12501,11 +11673,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12538,11 +11706,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12575,11 +11739,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12612,11 +11772,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12649,11 +11805,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12686,11 +11838,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12723,11 +11871,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +11904,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +11937,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12834,11 +11970,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12871,11 +12003,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12908,11 +12036,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12945,11 +12069,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12982,11 +12102,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13019,11 +12135,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13056,11 +12168,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13093,11 +12201,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13130,11 +12234,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13167,11 +12267,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13204,11 +12300,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13241,11 +12333,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13278,11 +12366,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13315,11 +12399,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13352,11 +12432,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +12465,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13422,15 +12494,11 @@
         <v>9156.755848813165</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13459,15 +12527,11 @@
         <v>9141.926148813165</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13496,15 +12560,11 @@
         <v>9160.115148813165</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13533,15 +12593,11 @@
         <v>8890.734548813165</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13570,15 +12626,11 @@
         <v>9316.116948813165</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13607,15 +12659,11 @@
         <v>9293.206248813165</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13644,15 +12692,11 @@
         <v>9160.271548813165</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13681,15 +12725,11 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13718,15 +12758,11 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13755,15 +12791,11 @@
         <v>9071.178248813165</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13792,15 +12824,11 @@
         <v>9157.524348813165</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13829,15 +12857,11 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13866,15 +12890,11 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13903,15 +12923,11 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13940,15 +12956,11 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13977,15 +12989,11 @@
         <v>9521.262748813166</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14014,15 +13022,11 @@
         <v>9524.029548813165</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14051,15 +13055,11 @@
         <v>9621.639448813165</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14088,15 +13088,11 @@
         <v>9711.264147062617</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14129,11 +13125,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14166,11 +13158,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14203,11 +13191,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14240,11 +13224,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +13257,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +13290,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14351,11 +13323,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14388,11 +13356,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14425,11 +13389,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14462,11 +13422,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +13455,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +13488,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14573,11 +13521,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14610,11 +13554,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14647,11 +13587,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +13620,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14721,11 +13653,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14758,11 +13686,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14795,11 +13719,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +13752,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +13785,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +13818,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14943,11 +13851,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +13884,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15017,11 +13917,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +13950,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15091,11 +13983,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15128,11 +14016,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15165,11 +14049,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +14082,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15239,11 +14115,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +14148,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15313,11 +14181,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15350,11 +14214,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15387,11 +14247,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +14280,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +14313,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +14346,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +14379,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +14412,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +14445,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15646,11 +14478,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15683,11 +14511,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +14544,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +14577,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15794,11 +14610,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15831,11 +14643,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15868,11 +14676,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +14709,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15942,11 +14742,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15979,11 +14775,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16016,11 +14808,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16053,11 +14841,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16090,11 +14874,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16127,11 +14907,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16164,11 +14940,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16201,11 +14973,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16238,11 +15006,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +15039,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16312,11 +15072,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16349,11 +15105,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16386,11 +15138,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +15171,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16460,11 +15204,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16497,11 +15237,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16534,11 +15270,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16571,11 +15303,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16608,11 +15336,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +15369,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16682,11 +15402,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16719,11 +15435,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16756,11 +15468,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16793,11 +15501,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16830,11 +15534,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16867,11 +15567,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16904,11 +15600,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16941,11 +15633,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +15666,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17015,11 +15699,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +15732,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +15765,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +15798,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17163,11 +15831,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +15864,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +15897,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17274,11 +15930,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +15963,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +15996,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17385,11 +16029,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17422,11 +16062,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17459,11 +16095,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17496,11 +16128,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17533,11 +16161,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17570,11 +16194,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +16227,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +16260,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17681,11 +16293,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17718,11 +16326,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17755,11 +16359,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17792,11 +16392,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17829,11 +16425,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17866,11 +16458,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17903,11 +16491,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17940,11 +16524,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17977,11 +16557,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18014,11 +16590,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18051,11 +16623,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18088,11 +16656,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18125,11 +16689,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18162,11 +16722,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18199,11 +16755,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18236,11 +16788,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18273,11 +16821,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18310,11 +16854,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18347,11 +16887,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18384,11 +16920,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +16953,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18458,11 +16986,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18495,11 +17019,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18532,11 +17052,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18569,11 +17085,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18606,11 +17118,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18643,11 +17151,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18680,11 +17184,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18717,11 +17217,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18754,11 +17250,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +17283,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18828,11 +17316,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +17349,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18902,11 +17382,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18939,11 +17415,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18976,11 +17448,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19013,11 +17481,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19050,11 +17514,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19087,11 +17547,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19124,11 +17580,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19161,11 +17613,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19198,11 +17646,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19235,11 +17679,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19272,11 +17712,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19309,11 +17745,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19346,11 +17778,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19383,11 +17811,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19420,11 +17844,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19457,11 +17877,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19494,11 +17910,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19531,11 +17943,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19568,11 +17976,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19605,11 +18009,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19642,11 +18042,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19675,16 +18071,14 @@
         <v>14788.38138094893</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
       <c r="M520" t="inlineStr"/>
     </row>
     <row r="521">
@@ -19710,7 +18104,7 @@
         <v>15408.66234623555</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19743,7 +18137,7 @@
         <v>16045.08679227767</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19776,7 +18170,7 @@
         <v>17229.28925880797</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19809,7 +18203,7 @@
         <v>16320.89650556601</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19842,7 +18236,7 @@
         <v>17089.12455656812</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19875,7 +18269,7 @@
         <v>17554.89045656812</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19908,7 +18302,7 @@
         <v>18008.87315908913</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19941,7 +18335,7 @@
         <v>18486.78597403166</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19974,7 +18368,7 @@
         <v>17588.21003319396</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20007,7 +18401,7 @@
         <v>16898.88331025869</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20040,7 +18434,7 @@
         <v>17378.42411757322</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20073,7 +18467,7 @@
         <v>16901.19084890481</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20106,7 +18500,7 @@
         <v>15857.033637409</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20139,7 +18533,7 @@
         <v>16230.7417305512</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20172,7 +18566,7 @@
         <v>15501.7512305512</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20205,7 +18599,7 @@
         <v>14683.9535305512</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20238,7 +18632,7 @@
         <v>13990.2806305512</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20271,7 +18665,7 @@
         <v>13533.3030305512</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20304,7 +18698,7 @@
         <v>13169.2895305512</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20337,7 +18731,7 @@
         <v>12336.2302305512</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20370,7 +18764,7 @@
         <v>10972.50774120186</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20403,7 +18797,7 @@
         <v>10263.78774120186</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20436,7 +18830,7 @@
         <v>9913.241232688106</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20469,7 +18863,7 @@
         <v>10634.05487114964</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20502,7 +18896,7 @@
         <v>10960.29537114964</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20535,7 +18929,7 @@
         <v>11197.21153025052</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20568,7 +18962,7 @@
         <v>11523.29183025052</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20601,7 +18995,7 @@
         <v>12257.45237022868</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20634,7 +19028,7 @@
         <v>12068.62287022868</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20667,7 +19061,7 @@
         <v>12264.27227022868</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20700,7 +19094,7 @@
         <v>12762.22937022868</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20733,7 +19127,7 @@
         <v>12762.22937022868</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20766,7 +19160,7 @@
         <v>12621.98877022868</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20799,7 +19193,7 @@
         <v>12794.15897022868</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20832,7 +19226,7 @@
         <v>12703.52711475107</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20865,7 +19259,7 @@
         <v>12703.52711475107</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -24099,7 +22493,7 @@
         <v>13099.29846340849</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24132,7 +22526,7 @@
         <v>13013.84916340849</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24330,7 +22724,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24363,7 +22757,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24396,7 +22790,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24429,7 +22823,7 @@
         <v>12773.88696340849</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -31326,7 +29720,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31359,7 +29753,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31392,7 +29786,7 @@
         <v>11973.23166824638</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31425,7 +29819,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31458,7 +29852,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31491,7 +29885,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31524,7 +29918,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31557,7 +29951,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31590,7 +29984,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31623,7 +30017,7 @@
         <v>12060.84016912599</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31689,7 +30083,7 @@
         <v>12040.22046912598</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31722,7 +30116,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31755,7 +30149,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31788,7 +30182,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31821,7 +30215,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31854,7 +30248,7 @@
         <v>12063.48016912599</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -38322,7 +36716,7 @@
         <v>14223.99898997973</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38388,7 +36782,7 @@
         <v>14208.37148997973</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -39345,7 +37739,7 @@
         <v>14797.70688102742</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39411,7 +37805,7 @@
         <v>14861.03962311858</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39444,7 +37838,7 @@
         <v>14724.78592311858</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39477,7 +37871,7 @@
         <v>14844.16112311858</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39510,7 +37904,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39543,7 +37937,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39576,7 +37970,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39609,7 +38003,7 @@
         <v>14760.5832365234</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39642,7 +38036,7 @@
         <v>14782.2461365234</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39675,7 +38069,7 @@
         <v>14433.4899365234</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39939,7 +38333,7 @@
         <v>14419.53545597754</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39972,7 +38366,7 @@
         <v>14354.57395597754</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40005,7 +38399,7 @@
         <v>14355.06055597754</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40038,7 +38432,7 @@
         <v>14355.02205597754</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40071,7 +38465,7 @@
         <v>14355.02205597754</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40104,7 +38498,7 @@
         <v>14251.06445597754</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40137,7 +38531,7 @@
         <v>14317.58165597754</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40170,7 +38564,7 @@
         <v>14331.59165597755</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -40203,7 +38597,7 @@
         <v>14330.56072814249</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -40236,7 +38630,7 @@
         <v>14330.56072814249</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -40269,7 +38663,7 @@
         <v>14330.03572814249</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40302,7 +38696,7 @@
         <v>14329.29092814249</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40335,7 +38729,7 @@
         <v>14347.43842814249</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -45285,7 +43679,7 @@
         <v>15036.57790001959</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -45318,7 +43712,7 @@
         <v>14909.62110001959</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -45417,7 +43811,7 @@
         <v>14930.49505597453</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -45450,7 +43844,7 @@
         <v>14870.18575597453</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -45483,7 +43877,7 @@
         <v>14870.18575597453</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -45516,7 +43910,7 @@
         <v>14895.41045597453</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -45549,7 +43943,7 @@
         <v>14861.32665597453</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -45582,7 +43976,7 @@
         <v>14853.05955597453</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -45615,7 +44009,7 @@
         <v>14503.12485597453</v>
       </c>
       <c r="H1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -45648,7 +44042,7 @@
         <v>14541.30185597453</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -45681,7 +44075,7 @@
         <v>14486.24695597453</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -45714,7 +44108,7 @@
         <v>14261.50885597453</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -45747,7 +44141,7 @@
         <v>13975.92495597453</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -45780,7 +44174,7 @@
         <v>13928.71805597453</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -45813,7 +44207,7 @@
         <v>14181.90415597453</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -45846,7 +44240,7 @@
         <v>14223.96325597453</v>
       </c>
       <c r="H1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -45879,7 +44273,7 @@
         <v>14312.23505597453</v>
       </c>
       <c r="H1314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -45912,7 +44306,7 @@
         <v>14227.42717754316</v>
       </c>
       <c r="H1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -45945,7 +44339,7 @@
         <v>14148.96587754316</v>
       </c>
       <c r="H1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -45978,7 +44372,7 @@
         <v>14148.96587754316</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -46011,7 +44405,7 @@
         <v>14179.96307754316</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -46044,7 +44438,7 @@
         <v>14163.73547754316</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -46077,7 +44471,7 @@
         <v>14166.42257754316</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -46110,7 +44504,7 @@
         <v>14183.27927754316</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -46352,6 +44746,6 @@
       <c r="M1328" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ETH.xlsx
+++ b/BackTest/2020-01-16 BackTest ETH.xlsx
@@ -583,17 +583,11 @@
         <v>-1636.502166357573</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>171300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -626,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -659,17 +649,11 @@
         <v>-2539.827257373427</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>169300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,17 +682,11 @@
         <v>-2998.378757373427</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>168800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -737,17 +715,11 @@
         <v>-3747.595257373427</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>168300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -776,17 +748,11 @@
         <v>-2783.422657373427</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>167900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -815,17 +781,11 @@
         <v>-2226.467457373427</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -854,17 +814,11 @@
         <v>-2147.405035177442</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -893,17 +847,11 @@
         <v>-2147.405035177442</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,17 +880,11 @@
         <v>-1934.153781155128</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,17 +913,11 @@
         <v>-1605.447481155128</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>169900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +954,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1283,11 +1219,9 @@
         <v>-1715.16466933855</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>170000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1439,11 +1373,9 @@
         <v>-1821.02746933855</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>169300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1478,11 +1410,9 @@
         <v>-1821.02746933855</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>169700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -2219,11 +2149,9 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2258,11 +2186,9 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2297,11 +2223,9 @@
         <v>-1848.804143661283</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2336,11 +2260,9 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>170800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2375,11 +2297,9 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>170900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2531,11 +2451,9 @@
         <v>-1616.989775049847</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>171400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2765,11 +2683,9 @@
         <v>-885.9175472076197</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>171900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -4506,16 +4422,18 @@
         <v>5716.398690229056</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4541,11 +4459,15 @@
         <v>4888.679790229056</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4496,15 @@
         <v>5291.691890229056</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4533,15 @@
         <v>6281.020690229057</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4640,11 +4570,15 @@
         <v>6642.741690229057</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4607,15 @@
         <v>5918.207290229057</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4706,11 +4644,15 @@
         <v>5695.22902617786</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4681,15 @@
         <v>4600.349604316874</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4776,7 +4722,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4809,7 +4759,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4842,7 +4796,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4875,7 +4833,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4908,7 +4870,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4941,7 +4907,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4974,7 +4944,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5007,7 +4981,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +5018,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5073,7 +5055,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5106,7 +5092,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +5129,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5172,7 +5166,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5205,7 +5203,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5238,7 +5240,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5271,7 +5277,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5304,7 +5314,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5337,7 +5351,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5370,7 +5388,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5403,7 +5425,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5436,7 +5462,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5469,7 +5499,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5532,15 @@
         <v>7470.187456666538</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5569,15 @@
         <v>8981.35144209568</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5606,15 @@
         <v>7857.77774209568</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5597,11 +5643,15 @@
         <v>8344.99064209568</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5630,11 +5680,15 @@
         <v>7798.93444209568</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5663,11 +5717,15 @@
         <v>8476.775942095679</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5696,11 +5754,15 @@
         <v>8603.406442095678</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5729,11 +5791,15 @@
         <v>7996.812590130613</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5762,11 +5828,15 @@
         <v>8223.687027254724</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5795,11 +5865,15 @@
         <v>8046.009339061424</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5828,11 +5902,15 @@
         <v>7758.601239061424</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5861,11 +5939,15 @@
         <v>7895.807510047028</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5976,15 @@
         <v>8028.131510047027</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5931,7 +6017,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5964,7 +6054,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5997,7 +6091,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +6124,15 @@
         <v>7831.426510433129</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6063,7 +6165,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6096,7 +6202,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6129,7 +6239,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6162,7 +6276,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6195,7 +6313,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6228,7 +6350,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6261,7 +6387,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6294,7 +6424,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6327,7 +6461,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6360,7 +6498,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6393,7 +6535,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6426,7 +6572,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6459,7 +6609,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6492,7 +6646,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6525,7 +6683,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6558,7 +6720,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6591,7 +6757,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6624,7 +6794,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6657,7 +6831,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6690,7 +6868,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6905,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6756,7 +6942,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6789,7 +6979,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6822,7 +7016,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +7049,15 @@
         <v>7084.520879827565</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6888,7 +7090,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6921,7 +7127,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6954,7 +7164,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6987,7 +7201,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7020,7 +7238,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7053,7 +7275,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7086,7 +7312,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7119,7 +7349,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7152,7 +7386,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7185,7 +7423,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7218,7 +7460,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7251,7 +7497,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7284,7 +7534,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7317,7 +7571,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7350,7 +7608,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7383,7 +7645,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7416,7 +7682,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7449,7 +7719,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7756,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7515,7 +7793,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7548,7 +7830,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7581,7 +7867,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7614,7 +7904,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7647,7 +7941,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7680,7 +7978,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7713,7 +8015,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7746,7 +8052,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7779,7 +8089,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7812,7 +8126,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7845,7 +8163,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8200,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7911,7 +8237,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7944,7 +8274,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7977,7 +8311,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8010,7 +8348,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8043,7 +8385,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8076,7 +8422,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8109,7 +8459,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8142,7 +8496,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8175,7 +8533,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8208,7 +8570,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8241,7 +8607,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8274,7 +8644,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8307,7 +8681,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8340,7 +8718,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8373,7 +8755,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8406,7 +8792,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8439,7 +8829,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8472,7 +8866,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8505,7 +8903,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8538,7 +8940,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8571,7 +8977,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8604,7 +9014,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +9051,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8670,7 +9088,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8703,7 +9125,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8736,7 +9162,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8769,7 +9199,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8802,7 +9236,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8835,7 +9273,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8868,7 +9310,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8901,7 +9347,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8934,7 +9384,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8967,7 +9421,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9000,7 +9458,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9495,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9066,7 +9532,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9099,7 +9569,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9132,7 +9606,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9165,7 +9643,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9198,7 +9680,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9231,7 +9717,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9264,7 +9754,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9297,7 +9791,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9330,7 +9828,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9363,7 +9865,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9396,7 +9902,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9429,7 +9939,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9462,7 +9976,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9495,7 +10013,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9528,7 +10050,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9561,7 +10087,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9594,7 +10124,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9627,7 +10161,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9660,7 +10198,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9693,7 +10235,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9726,7 +10272,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9759,7 +10309,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9792,7 +10346,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9825,7 +10383,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9858,7 +10420,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9891,7 +10457,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9924,7 +10494,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9957,7 +10531,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9990,7 +10568,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10023,7 +10605,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10056,7 +10642,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10089,7 +10679,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10122,7 +10716,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10155,7 +10753,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10790,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10221,7 +10827,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10254,7 +10864,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10287,7 +10901,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10320,7 +10938,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10353,7 +10975,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10386,7 +11012,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10419,7 +11049,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10452,7 +11086,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10485,7 +11123,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10518,7 +11160,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10551,7 +11197,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10584,7 +11234,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10617,7 +11271,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10650,7 +11308,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10683,7 +11345,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10716,7 +11382,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +11419,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10782,7 +11456,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10815,7 +11493,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10848,7 +11530,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10881,7 +11567,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10914,7 +11604,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10947,7 +11641,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10980,7 +11678,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11013,7 +11715,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11046,7 +11752,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11079,7 +11789,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11112,7 +11826,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11145,7 +11863,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11178,7 +11900,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11211,7 +11937,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11244,7 +11974,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11277,7 +12011,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11310,7 +12048,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +12085,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11376,7 +12122,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11409,7 +12159,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11442,7 +12196,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11475,7 +12233,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11508,7 +12270,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11541,7 +12307,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11574,7 +12344,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11607,7 +12381,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11640,7 +12418,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11673,7 +12455,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11706,7 +12492,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11739,7 +12529,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11772,7 +12566,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11805,7 +12603,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11838,7 +12640,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11871,7 +12677,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +12714,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11937,7 +12751,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11970,7 +12788,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12003,7 +12825,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12036,7 +12862,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12069,7 +12899,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +12936,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12135,7 +12973,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12168,7 +13010,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12201,7 +13047,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12234,7 +13084,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +13121,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12300,7 +13158,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12333,7 +13195,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12366,7 +13232,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12399,7 +13269,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12432,7 +13306,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12465,7 +13343,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12494,11 +13376,15 @@
         <v>9156.755848813165</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +13413,15 @@
         <v>9141.926148813165</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12560,11 +13450,15 @@
         <v>9160.115148813165</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12593,11 +13487,15 @@
         <v>8890.734548813165</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12626,11 +13524,15 @@
         <v>9316.116948813165</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12659,11 +13561,15 @@
         <v>9293.206248813165</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +13598,15 @@
         <v>9160.271548813165</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12725,11 +13635,15 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12758,11 +13672,15 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12791,11 +13709,15 @@
         <v>9071.178248813165</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12824,11 +13746,15 @@
         <v>9157.524348813165</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12857,11 +13783,15 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12890,11 +13820,15 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12923,11 +13857,15 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12956,11 +13894,15 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12989,11 +13931,15 @@
         <v>9521.262748813166</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13022,11 +13968,15 @@
         <v>9524.029548813165</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +14005,15 @@
         <v>9621.639448813165</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13088,11 +14042,15 @@
         <v>9711.264147062617</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13125,7 +14083,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13158,7 +14120,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13191,7 +14157,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13224,7 +14194,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13257,7 +14231,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13290,7 +14268,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13323,7 +14305,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13356,7 +14342,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13389,7 +14379,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13422,7 +14416,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13455,7 +14453,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13488,7 +14490,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13521,7 +14527,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13554,7 +14564,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13587,7 +14601,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13620,7 +14638,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13653,7 +14675,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13686,7 +14712,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13719,7 +14749,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13752,7 +14786,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13785,7 +14823,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13818,7 +14860,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13851,7 +14897,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13884,7 +14934,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13917,7 +14971,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13950,7 +15008,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13983,7 +15045,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14016,7 +15082,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14049,7 +15119,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14082,7 +15156,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14115,7 +15193,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14148,7 +15230,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14181,7 +15267,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14214,7 +15304,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14247,7 +15341,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14280,7 +15378,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14313,7 +15415,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14346,7 +15452,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14379,7 +15489,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14412,7 +15526,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14445,7 +15563,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14478,7 +15600,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14511,7 +15637,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14544,7 +15674,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14577,7 +15711,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14610,7 +15748,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14643,7 +15785,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14676,7 +15822,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14709,7 +15859,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14742,7 +15896,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14775,7 +15933,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +15970,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14841,7 +16007,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14874,7 +16044,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14907,7 +16081,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14940,7 +16118,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14973,7 +16155,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15006,7 +16192,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15039,7 +16229,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15072,7 +16266,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15105,7 +16303,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15138,7 +16340,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15171,7 +16377,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15204,7 +16414,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15237,7 +16451,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15270,7 +16488,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15303,7 +16525,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15336,7 +16562,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15369,7 +16599,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15402,7 +16636,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15435,7 +16673,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15468,7 +16710,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15501,7 +16747,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15534,7 +16784,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15567,7 +16821,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15600,7 +16858,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15633,7 +16895,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15666,7 +16932,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15699,7 +16969,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15732,7 +17006,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15765,7 +17043,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15798,7 +17080,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15831,7 +17117,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15864,7 +17154,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15897,7 +17191,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15930,7 +17228,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15963,7 +17265,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15996,7 +17302,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16029,7 +17339,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16062,7 +17376,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16095,7 +17413,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16128,7 +17450,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16161,7 +17487,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16194,7 +17524,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16227,7 +17561,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16260,7 +17598,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16293,7 +17635,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16326,7 +17672,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16359,7 +17709,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16392,7 +17746,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16425,7 +17783,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16458,7 +17820,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16491,7 +17857,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16524,7 +17894,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16557,7 +17931,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16590,7 +17968,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16623,7 +18005,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16656,7 +18042,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16689,7 +18079,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16722,7 +18116,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16755,7 +18153,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16788,7 +18190,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16821,7 +18227,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16854,7 +18264,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16887,7 +18301,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16920,7 +18338,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16953,7 +18375,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16986,7 +18412,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17019,7 +18449,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17052,7 +18486,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17085,7 +18523,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17118,7 +18560,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17151,7 +18597,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17184,7 +18634,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17217,7 +18671,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17250,7 +18708,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17283,7 +18745,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17316,7 +18782,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17349,7 +18819,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17382,7 +18856,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17415,7 +18893,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17448,7 +18930,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17481,7 +18967,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17514,7 +19004,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17547,7 +19041,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17580,7 +19078,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17613,7 +19115,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17646,7 +19152,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17679,7 +19189,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17712,7 +19226,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17745,7 +19263,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17778,7 +19300,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17811,7 +19337,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17844,7 +19374,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17877,7 +19411,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17910,7 +19448,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17943,7 +19485,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17972,14 +19518,16 @@
         <v>15683.78185220833</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="inlineStr"/>
     </row>
     <row r="518">
@@ -18005,7 +19553,7 @@
         <v>15480.72818094893</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18038,7 +19586,7 @@
         <v>15322.04898094893</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18071,7 +19619,7 @@
         <v>14788.38138094893</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18104,7 +19652,7 @@
         <v>15408.66234623555</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18137,7 +19685,7 @@
         <v>16045.08679227767</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18170,7 +19718,7 @@
         <v>17229.28925880797</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18203,7 +19751,7 @@
         <v>16320.89650556601</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18236,7 +19784,7 @@
         <v>17089.12455656812</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18269,7 +19817,7 @@
         <v>17554.89045656812</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18302,7 +19850,7 @@
         <v>18008.87315908913</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18335,7 +19883,7 @@
         <v>18486.78597403166</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18368,7 +19916,7 @@
         <v>17588.21003319396</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18401,7 +19949,7 @@
         <v>16898.88331025869</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18434,7 +19982,7 @@
         <v>17378.42411757322</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18467,7 +20015,7 @@
         <v>16901.19084890481</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18500,7 +20048,7 @@
         <v>15857.033637409</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18533,7 +20081,7 @@
         <v>16230.7417305512</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18566,7 +20114,7 @@
         <v>15501.7512305512</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18599,7 +20147,7 @@
         <v>14683.9535305512</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18632,7 +20180,7 @@
         <v>13990.2806305512</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18665,7 +20213,7 @@
         <v>13533.3030305512</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18698,7 +20246,7 @@
         <v>13169.2895305512</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18731,7 +20279,7 @@
         <v>12336.2302305512</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18764,7 +20312,7 @@
         <v>10972.50774120186</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18797,7 +20345,7 @@
         <v>10263.78774120186</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -29720,7 +31268,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29753,7 +31301,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29786,7 +31334,7 @@
         <v>11973.23166824638</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29819,7 +31367,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29852,7 +31400,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29885,7 +31433,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29918,7 +31466,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29951,7 +31499,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29984,7 +31532,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30017,7 +31565,7 @@
         <v>12060.84016912599</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30083,7 +31631,7 @@
         <v>12040.22046912598</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30116,7 +31664,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30149,7 +31697,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30182,7 +31730,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30215,7 +31763,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30248,7 +31796,7 @@
         <v>12063.48016912599</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
